--- a/output/inference_results/test_sheets/batch_002/test_sheet (21).xlsx
+++ b/output/inference_results/test_sheets/batch_002/test_sheet (21).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,35 +424,30 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>序</t>
+          <t>代号</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>代号</t>
+          <t>项目名称</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>项目名称</t>
+          <t>结果</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>结果</t>
+          <t>提示</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>提示</t>
+          <t>单位</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>参考范围</t>
         </is>
@@ -461,49 +456,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>bdsjd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bdsjd</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH（白带）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>4.3</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4--4.5</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4-4.5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>bdgjd</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bdgjd</t>
+          <t>清洁度</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>清洁度（白带）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>III°</t>
         </is>
@@ -512,86 +497,74 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>bdspxb</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bdspxb</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上皮细胞（白带）</t>
+          <t>上皮细胞</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>bdrsgj</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bdrsgj</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>乳酸杆菌（白带）</t>
+          <t>乳酸杆菌</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bdbxb</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bdbxb</t>
+          <t>白细胞</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>白细胞（白带）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>十十</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/HP</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/HP</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0--15</t>
+          <t>0-15</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bdhxb</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bdhxb</t>
+          <t>红细胞</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>红细胞（白带）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>未见</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
@@ -600,52 +573,46 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>BDXSXB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BDXSXB</t>
+          <t>线索细胞</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>线索细胞（白带）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>未见</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>bdydmdc</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bdydmdc</t>
+          <t>阴道毛滴虫</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>阴道毛滴虫（白带）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>未见</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
@@ -654,27 +621,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>bdmi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bdmi</t>
+          <t>霉菌</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>霉菌（白带）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>未见</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
@@ -683,27 +645,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10 bdysyyt</t>
+          <t>bdysyyt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10 bdysyyt</t>
+          <t>疑似支原体</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>疑似支原体（白带）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>未见</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
@@ -712,27 +669,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11bdysyyt</t>
+          <t>bdysyyt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11bdysyyt</t>
+          <t>疑似衣原体</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>疑似衣原体（白带）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>未见</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>阴性</t>
         </is>
